--- a/SideProject/07_E_SUN_2021_Winter_AI/Feature engineering.xlsx
+++ b/SideProject/07_E_SUN_2021_Winter_AI/Feature engineering.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RT009223\Github\Projects\SideProject\07_E_SUN_2021_Winter_AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GitHub\Projects\SideProject\07_E_SUN_2021_Winter_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="項目" sheetId="1" r:id="rId1"/>
+    <sheet name="data形式" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Windowed aggregates</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,7 +71,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>每個消費類別在過去給個月的平均消費，先做</t>
+      <t>每一個月消費類別的</t>
     </r>
     <r>
       <rPr>
@@ -78,6 +80,132 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>數目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類別消費</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>percentage change</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c(t)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c(t+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c(t-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c(t-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c(t-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每個消費類別在過去每個月的平均消費，先做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>PCA</t>
     </r>
     <r>
@@ -93,80 +221,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>每一個月消費類別的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>unique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>數目</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>類別消費</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>percentage change</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lag </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資料</t>
-    </r>
+    <t>t_c_mean(t)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chid_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截具項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不是類別1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -234,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +329,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -259,6 +348,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5540375" y="1663700"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,52 +669,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="77.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,4 +724,216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="10" max="10" width="20.54296875" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>102</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SideProject/07_E_SUN_2021_Winter_AI/Feature engineering.xlsx
+++ b/SideProject/07_E_SUN_2021_Winter_AI/Feature engineering.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
@@ -298,12 +298,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -320,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +338,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -685,12 +694,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -700,7 +709,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -730,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
